--- a/Bao_cao/Project plan.xlsx
+++ b/Bao_cao/Project plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="27945" windowHeight="12330"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="27945" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlan" sheetId="16" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>TT</t>
   </si>
@@ -1281,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
@@ -1417,7 +1417,9 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="1:7">
@@ -1430,7 +1432,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="1:7">
@@ -1443,7 +1447,9 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="1:7">
@@ -1456,7 +1462,9 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="1:7">
@@ -1469,7 +1477,9 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
@@ -1482,7 +1492,9 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="1:7">
@@ -1495,7 +1507,9 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" customHeight="1" spans="1:7">
@@ -1508,7 +1522,9 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
@@ -1521,7 +1537,9 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17" customHeight="1" spans="1:7">
@@ -1547,7 +1565,9 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
@@ -1560,7 +1580,9 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
@@ -1573,7 +1595,9 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="8"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
@@ -1586,7 +1610,9 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G21" s="8"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
@@ -1599,7 +1625,9 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
     <row r="23" customHeight="1" spans="1:7">
@@ -1612,7 +1640,9 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G23" s="8"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
@@ -1625,7 +1655,9 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G24" s="8"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
@@ -1638,7 +1670,9 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G25" s="8"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
@@ -1664,7 +1698,9 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
@@ -1677,7 +1713,9 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="8"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
@@ -1690,7 +1728,9 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G29" s="8"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
@@ -1716,7 +1756,9 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G31" s="8"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
@@ -1729,8 +1771,13 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G32" s="8"/>
+    </row>
+    <row r="33" customHeight="1" spans="6:6">
+      <c r="F33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
